--- a/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,9 +98,9 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `SubstanceDefinition.molecularWeight` 0..* `BackboneElement`
 *  R4B: `SubstanceDefinition.molecularWeight` 0..* `BackboneElement`
-*  R4: `SubstanceSpecification.molecularWeight` 0..* `BackboneElement`
+*  R4: `SubstanceSpecification.molecularWeight` 0..* `SubstanceSpecification.structure.isotope.molecularWeight`
 Following are the generation technical comments:
-Element `SubstanceDefinition.molecularWeight` is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight`.</t>
+Element `SubstanceDefinition.molecularWeight` has is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,8 +340,8 @@
     <t>The method by which the molecular weight was determined.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight.method` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.molecularWeight.method` is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight.method`.</t>
+    <t>Element `SubstanceDefinition.molecularWeight.method` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a cross-version extension.
+Element `SubstanceDefinition.molecularWeight.method` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:method.id</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight.method</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,8 +435,8 @@
     <t>Type of molecular weight such as exact, average (also known as. number average), weight average.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight.type` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.molecularWeight.type` is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight.type`.</t>
+    <t>Element `SubstanceDefinition.molecularWeight.type` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a cross-version extension.
+Element `SubstanceDefinition.molecularWeight.type` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -445,6 +448,9 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -466,8 +472,8 @@
     <t>Used to capture quantitative values for a variety of elements. If only limits are given, the arithmetic mean would be the average. If only a single definite value for a given element is given, it would be captured in this field.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight.amount` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a component extension (e.g., if this element is used as a content reference).
-Element `SubstanceDefinition.molecularWeight.amount` is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight.amount`.</t>
+    <t>Element `SubstanceDefinition.molecularWeight.amount` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a cross-version extension.
+Element `SubstanceDefinition.molecularWeight.amount` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:amount.id</t>
@@ -477,6 +483,9 @@
   </si>
   <si>
     <t>Extension.extension:amount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight.amount</t>
   </si>
   <si>
     <t>Extension.extension:amount.value[x]</t>
@@ -833,7 +842,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="191.58984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="171.30078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1639,7 +1648,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1681,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1696,15 +1705,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1727,7 +1736,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1760,13 +1769,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1784,7 +1793,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1796,21 +1805,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1835,14 +1844,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1911,7 +1920,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2014,7 +2023,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2119,7 +2128,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2162,7 +2171,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2204,7 +2213,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2219,15 +2228,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2250,13 +2259,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2283,13 +2292,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2307,7 +2316,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2319,21 +2328,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2358,14 +2367,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2434,7 +2443,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2537,7 +2546,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2642,7 +2651,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2727,7 +2736,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2742,15 +2751,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2773,13 +2782,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2830,7 +2839,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2842,18 +2851,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2935,7 +2944,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -2950,15 +2959,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2981,13 +2990,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3038,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3050,10 +3059,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,7 +413,7 @@
     <t>The method by which the substance weight was measured.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-weight-method-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-weight-method-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -457,7 +457,7 @@
     <t>The type of substance weight measurement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-weight-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-weight-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:amount</t>
@@ -853,7 +853,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="48.37890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.41015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.molecularWeight.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SubstanceDefinition.molecularWeight` 0..* `BackboneElement`
 *  R4: `SubstanceSpecification.molecularWeight` 0..* `SubstanceSpecification.structure.isotope.molecularWeight`
 Following are the generation technical comments:
-Element `SubstanceDefinition.molecularWeight` has is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight`, but has no comparisons.</t>
+Element `SubstanceDefinition.molecularWeight` is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>The method by which the molecular weight was determined.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight.method` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a cross-version extension.
-Element `SubstanceDefinition.molecularWeight.method` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.molecularWeight.method` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:method.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight.method</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -413,7 +409,7 @@
     <t>The method by which the substance weight was measured.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-weight-method-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-weight-method-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -435,8 +431,7 @@
     <t>Type of molecular weight such as exact, average (also known as. number average), weight average.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight.type` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a cross-version extension.
-Element `SubstanceDefinition.molecularWeight.type` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.molecularWeight.type` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -448,16 +443,13 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight.type</t>
-  </si>
-  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
     <t>The type of substance weight measurement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-weight-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-weight-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:amount</t>
@@ -472,8 +464,7 @@
     <t>Used to capture quantitative values for a variety of elements. If only limits are given, the arithmetic mean would be the average. If only a single definite value for a given element is given, it would be captured in this field.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight.amount` is part of an existing definition because parent element `SubstanceDefinition.molecularWeight` requires a cross-version extension.
-Element `SubstanceDefinition.molecularWeight.amount` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.molecularWeight.amount` has a context of SubstanceSpecification.molecularWeight based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:amount.id</t>
@@ -483,9 +474,6 @@
   </si>
   <si>
     <t>Extension.extension:amount.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight.amount</t>
   </si>
   <si>
     <t>Extension.extension:amount.value[x]</t>
@@ -853,7 +841,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="48.37890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1648,72 +1636,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1736,7 +1724,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1769,31 +1757,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1805,21 +1793,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1844,14 +1832,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1920,7 +1908,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2023,7 +2011,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2128,7 +2116,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2171,7 +2159,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2213,30 +2201,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2259,13 +2247,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2292,13 +2280,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2316,7 +2304,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2328,21 +2316,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2367,14 +2355,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2443,7 +2431,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2546,7 +2534,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2651,7 +2639,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2694,7 +2682,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2736,30 +2724,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2782,13 +2770,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2839,7 +2827,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2851,18 +2839,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2944,30 +2932,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2990,13 +2978,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3047,7 +3035,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3059,10 +3047,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
